--- a/tests/mode1/randomPanel1/Mild_vs_Severe/MergedResult/SavedModel_summary.xlsx
+++ b/tests/mode1/randomPanel1/Mild_vs_Severe/MergedResult/SavedModel_summary.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Compound_10</t>
+          <t>Compound_2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Compound_2</t>
+          <t>Compound_10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
